--- a/data/pca/factorExposure/factorExposure_2019-01-10.xlsx
+++ b/data/pca/factorExposure/factorExposure_2019-01-10.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="111">
   <si>
     <t>factor1</t>
   </si>
@@ -29,6 +29,15 @@
   </si>
   <si>
     <t>factor5</t>
+  </si>
+  <si>
+    <t>factor6</t>
+  </si>
+  <si>
+    <t>factor7</t>
+  </si>
+  <si>
+    <t>factor8</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -695,13 +704,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F104"/>
+  <dimension ref="A1:I104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:9">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -717,70 +726,106 @@
       <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:6">
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
       <c r="A2" s="1" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="B2">
-        <v>-0.1080597041812311</v>
+        <v>0.06902407468350265</v>
       </c>
       <c r="C2">
-        <v>0.0005384768379390713</v>
+        <v>0.03392595136674593</v>
       </c>
       <c r="D2">
-        <v>0.08070800019954726</v>
+        <v>0.01946698478590739</v>
       </c>
       <c r="E2">
-        <v>0.01090427321842903</v>
+        <v>-0.04087066606540285</v>
       </c>
       <c r="F2">
-        <v>0.1314493397068452</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6">
+        <v>0.1365754664911433</v>
+      </c>
+      <c r="G2">
+        <v>0.05031044779245677</v>
+      </c>
+      <c r="H2">
+        <v>0.06048595769029062</v>
+      </c>
+      <c r="I2">
+        <v>0.1095246134286166</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
       <c r="A3" s="1" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B3">
-        <v>-0.2150450010273501</v>
+        <v>0.158440469291205</v>
       </c>
       <c r="C3">
-        <v>0.1567698584932884</v>
+        <v>0.1079226705006001</v>
       </c>
       <c r="D3">
-        <v>0.06699145825139891</v>
+        <v>-0.002410597058689713</v>
       </c>
       <c r="E3">
-        <v>-0.01372134437146593</v>
+        <v>0.01122982281342231</v>
       </c>
       <c r="F3">
-        <v>0.3425812015904152</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
+        <v>0.3863491941689812</v>
+      </c>
+      <c r="G3">
+        <v>0.2637890443880402</v>
+      </c>
+      <c r="H3">
+        <v>0.103195256738299</v>
+      </c>
+      <c r="I3">
+        <v>0.3617616555889693</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
       <c r="A4" s="1" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B4">
-        <v>-0.09462053100605887</v>
+        <v>0.07133551561270374</v>
       </c>
       <c r="C4">
-        <v>0.03622028238530839</v>
+        <v>0.05017318342816391</v>
       </c>
       <c r="D4">
-        <v>0.05487214764792706</v>
+        <v>-0.01465558209156103</v>
       </c>
       <c r="E4">
-        <v>-0.03454579903946164</v>
+        <v>-0.04044431456992931</v>
       </c>
       <c r="F4">
-        <v>0.07136653076180391</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
+        <v>0.08053219162601408</v>
+      </c>
+      <c r="G4">
+        <v>0.02172211319607525</v>
+      </c>
+      <c r="H4">
+        <v>0.04882213261699726</v>
+      </c>
+      <c r="I4">
+        <v>0.05517833803670404</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
       <c r="A5" s="1" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -797,190 +842,280 @@
       <c r="F5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:6">
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
       <c r="A6" s="1" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B6">
-        <v>0</v>
+        <v>0.02429495188396482</v>
       </c>
       <c r="C6">
-        <v>0</v>
+        <v>0.01058212899919011</v>
       </c>
       <c r="D6">
-        <v>0</v>
+        <v>-0.004880681089203432</v>
       </c>
       <c r="E6">
-        <v>0</v>
+        <v>-0.007408342720774153</v>
       </c>
       <c r="F6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6">
+        <v>0.006824170967878786</v>
+      </c>
+      <c r="G6">
+        <v>-0.01836065073823909</v>
+      </c>
+      <c r="H6">
+        <v>-0.01822656387556072</v>
+      </c>
+      <c r="I6">
+        <v>-0.003098571558904924</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
       <c r="A7" s="1" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="B7">
-        <v>-0.04506235163501649</v>
+        <v>0.03517031888048409</v>
       </c>
       <c r="C7">
-        <v>0.01564324992838176</v>
+        <v>0.020843429191689</v>
       </c>
       <c r="D7">
-        <v>0.04515648016633703</v>
+        <v>-0.03561871680586142</v>
       </c>
       <c r="E7">
-        <v>0.001848241788335678</v>
+        <v>-0.02743653420683404</v>
       </c>
       <c r="F7">
-        <v>0.06165092563981296</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6">
+        <v>0.04998026139754058</v>
+      </c>
+      <c r="G7">
+        <v>0.05128284720073551</v>
+      </c>
+      <c r="H7">
+        <v>0.0007411431933774966</v>
+      </c>
+      <c r="I7">
+        <v>0.03757678142652674</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
       <c r="A8" s="1" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B8">
-        <v>-0.05367074152414563</v>
+        <v>0.0262223359232282</v>
       </c>
       <c r="C8">
-        <v>0.05548934007285506</v>
+        <v>0.05322479967823063</v>
       </c>
       <c r="D8">
-        <v>0.02956722979293487</v>
+        <v>-0.01110589984879511</v>
       </c>
       <c r="E8">
-        <v>-0.02865188689641405</v>
+        <v>-0.01733359316170006</v>
       </c>
       <c r="F8">
-        <v>0.06872694750531753</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6">
+        <v>0.07266099222005226</v>
+      </c>
+      <c r="G8">
+        <v>0.04105319690556781</v>
+      </c>
+      <c r="H8">
+        <v>0.03961729507413739</v>
+      </c>
+      <c r="I8">
+        <v>0.06512233158266172</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
       <c r="A9" s="1" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="B9">
-        <v>-0.08004418142743366</v>
+        <v>0.06025745535662837</v>
       </c>
       <c r="C9">
-        <v>0.02736759761907251</v>
+        <v>0.04415342405171604</v>
       </c>
       <c r="D9">
-        <v>0.05439065292572756</v>
+        <v>-0.01792090553034767</v>
       </c>
       <c r="E9">
-        <v>-0.04752286567062163</v>
+        <v>-0.03590394208589345</v>
       </c>
       <c r="F9">
-        <v>0.05348464613076456</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6">
+        <v>0.07893631556721882</v>
+      </c>
+      <c r="G9">
+        <v>0.02151675453452697</v>
+      </c>
+      <c r="H9">
+        <v>0.04535175898602341</v>
+      </c>
+      <c r="I9">
+        <v>0.03136483883407368</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
       <c r="A10" s="1" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="B10">
-        <v>-0.02603386971462291</v>
+        <v>0.03520773728851322</v>
       </c>
       <c r="C10">
-        <v>-0.1548326828221818</v>
+        <v>-0.164322117813504</v>
       </c>
       <c r="D10">
-        <v>-0.05862271552877933</v>
+        <v>0.006117914196182518</v>
       </c>
       <c r="E10">
-        <v>0.03551234897294373</v>
+        <v>0.03224048734925847</v>
       </c>
       <c r="F10">
-        <v>0.07573154288196686</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6">
+        <v>0.06708530302062518</v>
+      </c>
+      <c r="G10">
+        <v>0.02265415206078712</v>
+      </c>
+      <c r="H10">
+        <v>0.0416049762796698</v>
+      </c>
+      <c r="I10">
+        <v>0.04573447146880461</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
       <c r="A11" s="1" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="B11">
-        <v>-0.05966797762159474</v>
+        <v>0.04888392015987394</v>
       </c>
       <c r="C11">
-        <v>0.01858910644476014</v>
+        <v>0.03330081148964237</v>
       </c>
       <c r="D11">
-        <v>0.0127427617252247</v>
+        <v>0.006401381910364933</v>
       </c>
       <c r="E11">
-        <v>0.006187481278482903</v>
+        <v>-0.008389318979481915</v>
       </c>
       <c r="F11">
-        <v>0.04324020248938666</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6">
+        <v>0.03794776269144394</v>
+      </c>
+      <c r="G11">
+        <v>-0.000486249755525551</v>
+      </c>
+      <c r="H11">
+        <v>0.01442029544514233</v>
+      </c>
+      <c r="I11">
+        <v>0.0288835088473456</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
       <c r="A12" s="1" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="B12">
-        <v>-0.04788324291854879</v>
+        <v>0.04411200920468987</v>
       </c>
       <c r="C12">
-        <v>0.02055613712337926</v>
+        <v>0.03066001298689783</v>
       </c>
       <c r="D12">
-        <v>0.008882733939251352</v>
+        <v>-0.005310617506325072</v>
       </c>
       <c r="E12">
-        <v>-0.01095018044920894</v>
+        <v>-0.009168002690069748</v>
       </c>
       <c r="F12">
-        <v>0.02758744780880829</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6">
+        <v>0.01359689014185616</v>
+      </c>
+      <c r="G12">
+        <v>0.002740180037356835</v>
+      </c>
+      <c r="H12">
+        <v>0.006252761070890621</v>
+      </c>
+      <c r="I12">
+        <v>0.01694975864499728</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
       <c r="A13" s="1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B13">
-        <v>-0.06171351335761838</v>
+        <v>0.04343702735637847</v>
       </c>
       <c r="C13">
-        <v>0.02713262588226805</v>
+        <v>0.02980059541291437</v>
       </c>
       <c r="D13">
-        <v>0.02695769112779696</v>
+        <v>0.01521740303542104</v>
       </c>
       <c r="E13">
-        <v>0.02847185314002985</v>
+        <v>-0.008399623964553017</v>
       </c>
       <c r="F13">
-        <v>0.1087850457649207</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6">
+        <v>0.1038146286121603</v>
+      </c>
+      <c r="G13">
+        <v>0.03032361664400029</v>
+      </c>
+      <c r="H13">
+        <v>0.03439355601481008</v>
+      </c>
+      <c r="I13">
+        <v>0.0638110722643898</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
       <c r="A14" s="1" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="B14">
-        <v>-0.03643379932637739</v>
+        <v>0.02740495669408276</v>
       </c>
       <c r="C14">
-        <v>0.02213365939906143</v>
+        <v>0.02486579906936914</v>
       </c>
       <c r="D14">
-        <v>0.03901359406173861</v>
+        <v>-0.005326362541201671</v>
       </c>
       <c r="E14">
-        <v>-0.005084307039103502</v>
+        <v>-0.02847692052111283</v>
       </c>
       <c r="F14">
-        <v>0.01958497613311029</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6">
+        <v>0.03579280367202298</v>
+      </c>
+      <c r="G14">
+        <v>0.05267798753328796</v>
+      </c>
+      <c r="H14">
+        <v>0.01941849161604475</v>
+      </c>
+      <c r="I14">
+        <v>0.01714324371241802</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9">
       <c r="A15" s="1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="B15">
         <v>0</v>
@@ -997,30 +1132,48 @@
       <c r="F15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:6">
+      <c r="G15">
+        <v>0</v>
+      </c>
+      <c r="H15">
+        <v>0</v>
+      </c>
+      <c r="I15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9">
       <c r="A16" s="1" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B16">
-        <v>-0.05060969493501737</v>
+        <v>0.04267922162165761</v>
       </c>
       <c r="C16">
-        <v>0.02414415425328596</v>
+        <v>0.03514823923464207</v>
       </c>
       <c r="D16">
-        <v>0.008838983028912097</v>
+        <v>0.0007442830574931088</v>
       </c>
       <c r="E16">
-        <v>0.0009559390148929721</v>
+        <v>-0.006288730923626617</v>
       </c>
       <c r="F16">
-        <v>0.0337903048127759</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6">
+        <v>0.03404826912432384</v>
+      </c>
+      <c r="G16">
+        <v>0.004743612293049352</v>
+      </c>
+      <c r="H16">
+        <v>0.006288819282230638</v>
+      </c>
+      <c r="I16">
+        <v>0.03018858184205695</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9">
       <c r="A17" s="1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -1037,10 +1190,19 @@
       <c r="F17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:6">
+      <c r="G17">
+        <v>0</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
+      <c r="I17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9">
       <c r="A18" s="1" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -1057,70 +1219,106 @@
       <c r="F18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:6">
+      <c r="G18">
+        <v>0</v>
+      </c>
+      <c r="H18">
+        <v>0</v>
+      </c>
+      <c r="I18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9">
       <c r="A19" s="1" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B19">
-        <v>-0.06731445226850881</v>
+        <v>0.05327996582255179</v>
       </c>
       <c r="C19">
-        <v>0.04676629428468963</v>
+        <v>0.0470402390586184</v>
       </c>
       <c r="D19">
-        <v>0.02753211537102671</v>
+        <v>0.003491551955866903</v>
       </c>
       <c r="E19">
-        <v>-0.001556711824518079</v>
+        <v>-0.01979985667985797</v>
       </c>
       <c r="F19">
-        <v>0.07949998186877913</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6">
+        <v>0.09086049572337049</v>
+      </c>
+      <c r="G19">
+        <v>0.0542861858982402</v>
+      </c>
+      <c r="H19">
+        <v>0.02571650238341153</v>
+      </c>
+      <c r="I19">
+        <v>0.06976106283085813</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9">
       <c r="A20" s="1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="B20">
-        <v>-0.03348350783796859</v>
+        <v>0.01978351314406775</v>
       </c>
       <c r="C20">
-        <v>0.03136408466426731</v>
+        <v>0.03081082789527009</v>
       </c>
       <c r="D20">
-        <v>0.04404104000864106</v>
+        <v>-0.005254473217491973</v>
       </c>
       <c r="E20">
-        <v>-0.02134932258509757</v>
+        <v>-0.02080611269526038</v>
       </c>
       <c r="F20">
-        <v>0.06232848097637973</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6">
+        <v>0.06298157317792577</v>
+      </c>
+      <c r="G20">
+        <v>0.05698316893507555</v>
+      </c>
+      <c r="H20">
+        <v>0.01695231255654718</v>
+      </c>
+      <c r="I20">
+        <v>0.07618398238156371</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9">
       <c r="A21" s="1" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="B21">
-        <v>-0.0378380941639811</v>
+        <v>0.03413366907484913</v>
       </c>
       <c r="C21">
-        <v>0.03833867434907066</v>
+        <v>0.03161821307930308</v>
       </c>
       <c r="D21">
-        <v>0.0232897603459818</v>
+        <v>-0.01121609386444744</v>
       </c>
       <c r="E21">
-        <v>0.00313365937254194</v>
+        <v>-0.007425143574982248</v>
       </c>
       <c r="F21">
-        <v>0.1016836567744083</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6">
+        <v>0.08049030287184725</v>
+      </c>
+      <c r="G21">
+        <v>0.01283087593863628</v>
+      </c>
+      <c r="H21">
+        <v>0.04886037651965393</v>
+      </c>
+      <c r="I21">
+        <v>0.002400164366623755</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9">
       <c r="A22" s="1" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="B22">
         <v>0</v>
@@ -1137,10 +1335,19 @@
       <c r="F22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:6">
+      <c r="G22">
+        <v>0</v>
+      </c>
+      <c r="H22">
+        <v>0</v>
+      </c>
+      <c r="I22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9">
       <c r="A23" s="1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B23">
         <v>0</v>
@@ -1157,230 +1364,338 @@
       <c r="F23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:6">
+      <c r="G23">
+        <v>0</v>
+      </c>
+      <c r="H23">
+        <v>0</v>
+      </c>
+      <c r="I23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9">
       <c r="A24" s="1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B24">
-        <v>-0.04922704973359505</v>
+        <v>0.04075102286889513</v>
       </c>
       <c r="C24">
-        <v>0.02110822338248374</v>
+        <v>0.03061490708920422</v>
       </c>
       <c r="D24">
-        <v>0.0159767219745619</v>
+        <v>8.969951134583961e-05</v>
       </c>
       <c r="E24">
-        <v>-0.004396700296823162</v>
+        <v>-0.009227337370333558</v>
       </c>
       <c r="F24">
-        <v>0.0422671643079173</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6">
+        <v>0.03639158731444091</v>
+      </c>
+      <c r="G24">
+        <v>-0.0001202339957489366</v>
+      </c>
+      <c r="H24">
+        <v>0.008791534429314806</v>
+      </c>
+      <c r="I24">
+        <v>0.03053861477460014</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9">
       <c r="A25" s="1" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="B25">
-        <v>-0.05195204607344048</v>
+        <v>0.04776129984566065</v>
       </c>
       <c r="C25">
-        <v>0.01684465461531182</v>
+        <v>0.02751069967793664</v>
       </c>
       <c r="D25">
-        <v>0.01202825082037737</v>
+        <v>0.0009140545284821023</v>
       </c>
       <c r="E25">
-        <v>-0.002657215712411821</v>
+        <v>-0.007960941100430817</v>
       </c>
       <c r="F25">
-        <v>0.04016882080273247</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6">
+        <v>0.04275725963611349</v>
+      </c>
+      <c r="G25">
+        <v>-0.001968234580948129</v>
+      </c>
+      <c r="H25">
+        <v>0.01357372018854781</v>
+      </c>
+      <c r="I25">
+        <v>0.02154502479458798</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9">
       <c r="A26" s="1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="B26">
-        <v>-0.02784289664774594</v>
+        <v>0.01621239966166657</v>
       </c>
       <c r="C26">
-        <v>0.03363952946562682</v>
+        <v>0.03083658958342666</v>
       </c>
       <c r="D26">
-        <v>0.02438857765756566</v>
+        <v>0.004372594330614329</v>
       </c>
       <c r="E26">
-        <v>0.01756689147581208</v>
+        <v>-0.002126524735073992</v>
       </c>
       <c r="F26">
-        <v>0.03194440431741061</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6">
+        <v>0.04221300275424174</v>
+      </c>
+      <c r="G26">
+        <v>0.02943711614046128</v>
+      </c>
+      <c r="H26">
+        <v>0.0153656533389001</v>
+      </c>
+      <c r="I26">
+        <v>0.02977220309519591</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9">
       <c r="A27" s="1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="B27">
-        <v>-0.118967967137637</v>
+        <v>0.07071581696532231</v>
       </c>
       <c r="C27">
-        <v>0.01951895122772475</v>
+        <v>0.02602816384159505</v>
       </c>
       <c r="D27">
-        <v>0.04138143096998638</v>
+        <v>-0.004083932306928323</v>
       </c>
       <c r="E27">
-        <v>-0.02890658317745351</v>
+        <v>-0.0314954695534252</v>
       </c>
       <c r="F27">
-        <v>0.07818399515829205</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6">
+        <v>0.06581416186542276</v>
+      </c>
+      <c r="G27">
+        <v>0.01595385383016091</v>
+      </c>
+      <c r="H27">
+        <v>0.02465735374125714</v>
+      </c>
+      <c r="I27">
+        <v>0.03985049424552328</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9">
       <c r="A28" s="1" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B28">
-        <v>-0.02625733850145694</v>
+        <v>0.04921193160866874</v>
       </c>
       <c r="C28">
-        <v>-0.2338011913330351</v>
+        <v>-0.250553458376494</v>
       </c>
       <c r="D28">
-        <v>-0.09941488401083189</v>
+        <v>0.0008082382232365221</v>
       </c>
       <c r="E28">
-        <v>0.03455944274000099</v>
+        <v>0.0469267993535034</v>
       </c>
       <c r="F28">
-        <v>0.05386343383680663</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6">
+        <v>0.05665829902069486</v>
+      </c>
+      <c r="G28">
+        <v>0.03607667371430598</v>
+      </c>
+      <c r="H28">
+        <v>0.04642465685213332</v>
+      </c>
+      <c r="I28">
+        <v>0.07092039186567342</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9">
       <c r="A29" s="1" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="B29">
-        <v>-0.03194554911795297</v>
+        <v>0.02454109473436737</v>
       </c>
       <c r="C29">
-        <v>0.02071485607856128</v>
+        <v>0.02243417131643788</v>
       </c>
       <c r="D29">
-        <v>0.03713447135824461</v>
+        <v>-0.00871167215384713</v>
       </c>
       <c r="E29">
-        <v>-0.01739638876515568</v>
+        <v>-0.02990195245654345</v>
       </c>
       <c r="F29">
-        <v>0.01896691805210813</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6">
+        <v>0.03259304678958284</v>
+      </c>
+      <c r="G29">
+        <v>0.05221674020307809</v>
+      </c>
+      <c r="H29">
+        <v>0.02252000264270918</v>
+      </c>
+      <c r="I29">
+        <v>0.002397748812259391</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9">
       <c r="A30" s="1" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="B30">
-        <v>-0.1157713202898866</v>
+        <v>0.09006765991028881</v>
       </c>
       <c r="C30">
-        <v>0.02226845440264246</v>
+        <v>0.05226555353986186</v>
       </c>
       <c r="D30">
-        <v>0.0474283361500807</v>
+        <v>0.03852239019636972</v>
       </c>
       <c r="E30">
-        <v>0.003623786970772321</v>
+        <v>-0.03298458001703965</v>
       </c>
       <c r="F30">
-        <v>0.1044851531810271</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6">
+        <v>0.1058590305409498</v>
+      </c>
+      <c r="G30">
+        <v>0.009847928220046501</v>
+      </c>
+      <c r="H30">
+        <v>-0.006122455207822125</v>
+      </c>
+      <c r="I30">
+        <v>0.02408677191526616</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9">
       <c r="A31" s="1" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="B31">
-        <v>-0.06942693555941899</v>
+        <v>0.06247203962475228</v>
       </c>
       <c r="C31">
-        <v>0.01458861418597569</v>
+        <v>0.0231839749662047</v>
       </c>
       <c r="D31">
-        <v>0.0306675526709836</v>
+        <v>0.01008337806390935</v>
       </c>
       <c r="E31">
-        <v>0.03220866352739474</v>
+        <v>-0.02354695603699233</v>
       </c>
       <c r="F31">
-        <v>-0.03551771648043525</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6">
+        <v>-0.004956250119151102</v>
+      </c>
+      <c r="G31">
+        <v>0.04096509318085003</v>
+      </c>
+      <c r="H31">
+        <v>0.03862994632757261</v>
+      </c>
+      <c r="I31">
+        <v>0.01344086569251514</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9">
       <c r="A32" s="1" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="B32">
-        <v>-0.07036281773353058</v>
+        <v>0.04257811275538928</v>
       </c>
       <c r="C32">
-        <v>0.03844811549053466</v>
+        <v>0.04678738964615339</v>
       </c>
       <c r="D32">
-        <v>0.03822634778502252</v>
+        <v>-0.01514283128070114</v>
       </c>
       <c r="E32">
-        <v>-0.01616280275873413</v>
+        <v>-0.03286299480015844</v>
       </c>
       <c r="F32">
-        <v>0.09302334219730114</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6">
+        <v>0.08379299461521053</v>
+      </c>
+      <c r="G32">
+        <v>0.0314999215092917</v>
+      </c>
+      <c r="H32">
+        <v>0.02925081093101645</v>
+      </c>
+      <c r="I32">
+        <v>0.05603109090056226</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9">
       <c r="A33" s="1" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="B33">
-        <v>-0.07015463167472248</v>
+        <v>0.05501057307518084</v>
       </c>
       <c r="C33">
-        <v>0.05574455342923151</v>
+        <v>0.05547364671836526</v>
       </c>
       <c r="D33">
-        <v>0.04188467632910605</v>
+        <v>0.01968795588837992</v>
       </c>
       <c r="E33">
-        <v>0.0107217425732299</v>
+        <v>-0.01087075099002823</v>
       </c>
       <c r="F33">
-        <v>0.06624716026659426</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6">
+        <v>0.07430648908116133</v>
+      </c>
+      <c r="G33">
+        <v>0.03756160992044533</v>
+      </c>
+      <c r="H33">
+        <v>0.04024422905368431</v>
+      </c>
+      <c r="I33">
+        <v>0.03233106516873931</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9">
       <c r="A34" s="1" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="B34">
-        <v>-0.05048454257890171</v>
+        <v>0.04310499636844674</v>
       </c>
       <c r="C34">
-        <v>0.02094138728394168</v>
+        <v>0.0353245251071665</v>
       </c>
       <c r="D34">
-        <v>0.01823913185551535</v>
+        <v>-0.003924631488687999</v>
       </c>
       <c r="E34">
-        <v>-0.003456988211394344</v>
+        <v>-0.01545634982106774</v>
       </c>
       <c r="F34">
-        <v>0.02798201269050967</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6">
+        <v>0.03305647288981804</v>
+      </c>
+      <c r="G34">
+        <v>0.005593376831433481</v>
+      </c>
+      <c r="H34">
+        <v>0.01006973645114054</v>
+      </c>
+      <c r="I34">
+        <v>0.02609354852705579</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9">
       <c r="A35" s="1" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="B35">
         <v>0</v>
@@ -1397,30 +1712,48 @@
       <c r="F35">
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="1:6">
+      <c r="G35">
+        <v>0</v>
+      </c>
+      <c r="H35">
+        <v>0</v>
+      </c>
+      <c r="I35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9">
       <c r="A36" s="1" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="B36">
-        <v>-0.01800842698023769</v>
+        <v>0.01555382599433333</v>
       </c>
       <c r="C36">
-        <v>0.003763758835861263</v>
+        <v>0.006494493409229279</v>
       </c>
       <c r="D36">
-        <v>0.01288709078687953</v>
+        <v>-0.004322555412429769</v>
       </c>
       <c r="E36">
-        <v>-0.005948655048100991</v>
+        <v>-0.009663464818835387</v>
       </c>
       <c r="F36">
-        <v>0.01658506077658824</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6">
+        <v>0.02454663261436897</v>
+      </c>
+      <c r="G36">
+        <v>0.03506709305777423</v>
+      </c>
+      <c r="H36">
+        <v>0.02315010612003536</v>
+      </c>
+      <c r="I36">
+        <v>-0.007180528222642719</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9">
       <c r="A37" s="1" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1437,150 +1770,222 @@
       <c r="F37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:6">
+      <c r="G37">
+        <v>0</v>
+      </c>
+      <c r="H37">
+        <v>0</v>
+      </c>
+      <c r="I37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9">
       <c r="A38" s="1" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="B38">
-        <v>-0.04302576734855872</v>
+        <v>0.03596127294985599</v>
       </c>
       <c r="C38">
-        <v>0.01077565417904013</v>
+        <v>0.0158938758096373</v>
       </c>
       <c r="D38">
-        <v>0.01615600458437677</v>
+        <v>-0.003814218486188202</v>
       </c>
       <c r="E38">
-        <v>-0.01960516445756234</v>
+        <v>-0.01030492546357563</v>
       </c>
       <c r="F38">
-        <v>0.02237235121476002</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6">
+        <v>0.04913440849238931</v>
+      </c>
+      <c r="G38">
+        <v>0.02097870265312579</v>
+      </c>
+      <c r="H38">
+        <v>0.02557521665941902</v>
+      </c>
+      <c r="I38">
+        <v>-0.01098889792345386</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9">
       <c r="A39" s="1" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="B39">
-        <v>-0.07161316190420233</v>
+        <v>0.05439124912486709</v>
       </c>
       <c r="C39">
-        <v>0.02183603699936022</v>
+        <v>0.04886100015319828</v>
       </c>
       <c r="D39">
-        <v>0.02480615810068992</v>
+        <v>0.006135093097999563</v>
       </c>
       <c r="E39">
-        <v>0.01295403302602311</v>
+        <v>-0.01813504256802869</v>
       </c>
       <c r="F39">
-        <v>0.03593127498178859</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6">
+        <v>0.05421712375225924</v>
+      </c>
+      <c r="G39">
+        <v>-0.005111275505367999</v>
+      </c>
+      <c r="H39">
+        <v>0.02172451278914666</v>
+      </c>
+      <c r="I39">
+        <v>0.007235041423833312</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9">
       <c r="A40" s="1" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="B40">
-        <v>-0.07549476568011527</v>
+        <v>0.05654332243912396</v>
       </c>
       <c r="C40">
-        <v>0.02126683421741191</v>
+        <v>0.04476362333760862</v>
       </c>
       <c r="D40">
-        <v>0.06053068924165993</v>
+        <v>0.0212710149437858</v>
       </c>
       <c r="E40">
-        <v>0.03037127937450161</v>
+        <v>-0.02561637689769496</v>
       </c>
       <c r="F40">
-        <v>0.1103915509157625</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6">
+        <v>0.09723283177896112</v>
+      </c>
+      <c r="G40">
+        <v>0.02586478409478749</v>
+      </c>
+      <c r="H40">
+        <v>0.03412637614856591</v>
+      </c>
+      <c r="I40">
+        <v>0.111433559657361</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9">
       <c r="A41" s="1" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="B41">
-        <v>-0.003967139522471442</v>
+        <v>0.004942132935822486</v>
       </c>
       <c r="C41">
-        <v>0.02363056414982843</v>
+        <v>0.01210617518465671</v>
       </c>
       <c r="D41">
-        <v>0.02902891474515781</v>
+        <v>0.0004869292478640296</v>
       </c>
       <c r="E41">
-        <v>-0.006823682168509793</v>
+        <v>-0.0104715336621758</v>
       </c>
       <c r="F41">
-        <v>-0.00844046493775249</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6">
+        <v>0.01063472157797304</v>
+      </c>
+      <c r="G41">
+        <v>0.04333846460169798</v>
+      </c>
+      <c r="H41">
+        <v>0.04168220979675606</v>
+      </c>
+      <c r="I41">
+        <v>0.01220509393437201</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9">
       <c r="A42" s="1" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="B42">
-        <v>-0.203019165668633</v>
+        <v>0.220296875332479</v>
       </c>
       <c r="C42">
-        <v>0.473944471609244</v>
+        <v>0.2339476374853684</v>
       </c>
       <c r="D42">
-        <v>-0.7753027194604079</v>
+        <v>0.05134563049787902</v>
       </c>
       <c r="E42">
-        <v>0.2880596362706705</v>
+        <v>0.9155277756014404</v>
       </c>
       <c r="F42">
-        <v>-0.03880847153281883</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6">
+        <v>-0.159051186001348</v>
+      </c>
+      <c r="G42">
+        <v>-0.008160144604227672</v>
+      </c>
+      <c r="H42">
+        <v>-0.004541190541544912</v>
+      </c>
+      <c r="I42">
+        <v>0.05981142769411801</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9">
       <c r="A43" s="1" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="B43">
-        <v>-0.007038503362526494</v>
+        <v>0.009022744882568479</v>
       </c>
       <c r="C43">
-        <v>0.02612656781858888</v>
+        <v>0.01371106071683415</v>
       </c>
       <c r="D43">
-        <v>0.0314622734756546</v>
+        <v>0.003271004696230435</v>
       </c>
       <c r="E43">
-        <v>-0.003006191673871364</v>
+        <v>-0.009188566051063817</v>
       </c>
       <c r="F43">
-        <v>0.02134309149563539</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6">
+        <v>0.0243025947295383</v>
+      </c>
+      <c r="G43">
+        <v>0.03153005619210241</v>
+      </c>
+      <c r="H43">
+        <v>0.02491142765933725</v>
+      </c>
+      <c r="I43">
+        <v>0.02216189643802859</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9">
       <c r="A44" s="1" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="B44">
-        <v>-0.04609983601541581</v>
+        <v>0.03005825825807269</v>
       </c>
       <c r="C44">
-        <v>0.04838563421757578</v>
+        <v>0.04336070948131625</v>
       </c>
       <c r="D44">
-        <v>0.04369380869887117</v>
+        <v>-0.001042614365879767</v>
       </c>
       <c r="E44">
-        <v>0.003585071123132164</v>
+        <v>-0.0155509391195364</v>
       </c>
       <c r="F44">
-        <v>0.1119450677873927</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6">
+        <v>0.1186378072177207</v>
+      </c>
+      <c r="G44">
+        <v>0.0820585216352147</v>
+      </c>
+      <c r="H44">
+        <v>0.0591219752411165</v>
+      </c>
+      <c r="I44">
+        <v>0.05489287158363738</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9">
       <c r="A45" s="1" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1597,70 +2002,106 @@
       <c r="F45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:6">
+      <c r="G45">
+        <v>0</v>
+      </c>
+      <c r="H45">
+        <v>0</v>
+      </c>
+      <c r="I45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9">
       <c r="A46" s="1" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="B46">
-        <v>-0.03334008396416314</v>
+        <v>0.02703340999185224</v>
       </c>
       <c r="C46">
-        <v>0.0225934695470194</v>
+        <v>0.03631359224047698</v>
       </c>
       <c r="D46">
-        <v>0.03923481530199279</v>
+        <v>0.00456347502150603</v>
       </c>
       <c r="E46">
-        <v>-0.001438220647929903</v>
+        <v>-0.03154936410542755</v>
       </c>
       <c r="F46">
-        <v>0.01437857377779237</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6">
+        <v>0.04329007394280189</v>
+      </c>
+      <c r="G46">
+        <v>0.0574518319731919</v>
+      </c>
+      <c r="H46">
+        <v>0.02200935357205194</v>
+      </c>
+      <c r="I46">
+        <v>0.007675105874574636</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9">
       <c r="A47" s="1" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="B47">
-        <v>-0.09558266955295497</v>
+        <v>0.08796851122839851</v>
       </c>
       <c r="C47">
-        <v>0.00926697440141939</v>
+        <v>0.02054264679026761</v>
       </c>
       <c r="D47">
-        <v>0.02769853017903558</v>
+        <v>0.005178546728647778</v>
       </c>
       <c r="E47">
-        <v>-0.001908054564131878</v>
+        <v>-0.02822483462798472</v>
       </c>
       <c r="F47">
-        <v>-0.02876414178307905</v>
-      </c>
-    </row>
-    <row r="48" spans="1:6">
+        <v>-0.01745190765706982</v>
+      </c>
+      <c r="G47">
+        <v>0.05861861593838968</v>
+      </c>
+      <c r="H47">
+        <v>0.03292948010497463</v>
+      </c>
+      <c r="I47">
+        <v>0.03459682043552488</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9">
       <c r="A48" s="1" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="B48">
-        <v>-0.02155474633183518</v>
+        <v>0.02106819558263702</v>
       </c>
       <c r="C48">
-        <v>0.02153441729717543</v>
+        <v>0.01813940869907193</v>
       </c>
       <c r="D48">
-        <v>0.02547658708857906</v>
+        <v>-0.0005837781599581962</v>
       </c>
       <c r="E48">
-        <v>-0.0009144815160832937</v>
+        <v>-0.01410690573573695</v>
       </c>
       <c r="F48">
-        <v>0.02064210692928679</v>
-      </c>
-    </row>
-    <row r="49" spans="1:6">
+        <v>0.02608836648838501</v>
+      </c>
+      <c r="G48">
+        <v>0.02395416374278788</v>
+      </c>
+      <c r="H48">
+        <v>0.01886128888877943</v>
+      </c>
+      <c r="I48">
+        <v>0.01108710110210213</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9">
       <c r="A49" s="1" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="B49">
         <v>0</v>
@@ -1677,50 +2118,77 @@
       <c r="F49">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:6">
+      <c r="G49">
+        <v>0</v>
+      </c>
+      <c r="H49">
+        <v>0</v>
+      </c>
+      <c r="I49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9">
       <c r="A50" s="1" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="B50">
-        <v>-0.09311303077240192</v>
+        <v>0.08901786538636056</v>
       </c>
       <c r="C50">
-        <v>0.02892166295858284</v>
+        <v>0.04106245660487936</v>
       </c>
       <c r="D50">
-        <v>0.03295799017080529</v>
+        <v>-0.009373423370410972</v>
       </c>
       <c r="E50">
-        <v>0.006210593072343951</v>
+        <v>-0.02579996652456928</v>
       </c>
       <c r="F50">
-        <v>-0.03040399044124694</v>
-      </c>
-    </row>
-    <row r="51" spans="1:6">
+        <v>-0.01097555291060361</v>
+      </c>
+      <c r="G50">
+        <v>0.03753144602930671</v>
+      </c>
+      <c r="H50">
+        <v>-0.007017806857037656</v>
+      </c>
+      <c r="I50">
+        <v>-0.004456159422489727</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9">
       <c r="A51" s="1" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="B51">
-        <v>-0.05748403275999384</v>
+        <v>0.03957950505174921</v>
       </c>
       <c r="C51">
-        <v>-0.01406990110186035</v>
+        <v>-0.004514370667821307</v>
       </c>
       <c r="D51">
-        <v>0.02818520947031396</v>
+        <v>0.01050715752209398</v>
       </c>
       <c r="E51">
-        <v>0.02925797248349625</v>
+        <v>-0.01336482718271465</v>
       </c>
       <c r="F51">
-        <v>0.06565423716168281</v>
-      </c>
-    </row>
-    <row r="52" spans="1:6">
+        <v>0.09235591104687989</v>
+      </c>
+      <c r="G51">
+        <v>0.06172502547438222</v>
+      </c>
+      <c r="H51">
+        <v>0.05651455101385799</v>
+      </c>
+      <c r="I51">
+        <v>0.03175770847403298</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9">
       <c r="A52" s="1" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1737,190 +2205,280 @@
       <c r="F52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:6">
+      <c r="G52">
+        <v>0</v>
+      </c>
+      <c r="H52">
+        <v>0</v>
+      </c>
+      <c r="I52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9">
       <c r="A53" s="1" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="B53">
-        <v>-0.1348759437609544</v>
+        <v>0.1250797428967376</v>
       </c>
       <c r="C53">
-        <v>0.009096738902381588</v>
+        <v>0.03704948889249027</v>
       </c>
       <c r="D53">
-        <v>0.05706207463999451</v>
+        <v>0.006582156001972176</v>
       </c>
       <c r="E53">
-        <v>0.004946712462968135</v>
+        <v>-0.0535379714344983</v>
       </c>
       <c r="F53">
-        <v>-0.06238738266798682</v>
-      </c>
-    </row>
-    <row r="54" spans="1:6">
+        <v>-0.04729831442888836</v>
+      </c>
+      <c r="G53">
+        <v>0.00608195938762203</v>
+      </c>
+      <c r="H53">
+        <v>0.02922192998060151</v>
+      </c>
+      <c r="I53">
+        <v>0.03853822638652239</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9">
       <c r="A54" s="1" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="B54">
-        <v>-0.02927520521960757</v>
+        <v>0.02661793046563918</v>
       </c>
       <c r="C54">
-        <v>0.004890240961635864</v>
+        <v>0.00853761147408494</v>
       </c>
       <c r="D54">
-        <v>0.03273719441162808</v>
+        <v>-0.004240846513711609</v>
       </c>
       <c r="E54">
-        <v>-0.00814590872751275</v>
+        <v>-0.03020715454590527</v>
       </c>
       <c r="F54">
-        <v>0.02229271427042341</v>
-      </c>
-    </row>
-    <row r="55" spans="1:6">
+        <v>0.03110262368865492</v>
+      </c>
+      <c r="G54">
+        <v>0.05271386533221784</v>
+      </c>
+      <c r="H54">
+        <v>0.03589675258570197</v>
+      </c>
+      <c r="I54">
+        <v>0.002920750378908296</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9">
       <c r="A55" s="1" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="B55">
-        <v>-0.106815925130549</v>
+        <v>0.09789288138366979</v>
       </c>
       <c r="C55">
-        <v>-0.007136051851430964</v>
+        <v>0.03195450129284708</v>
       </c>
       <c r="D55">
-        <v>0.02990256879418695</v>
+        <v>-0.01193441664456828</v>
       </c>
       <c r="E55">
-        <v>-0.04328943375405486</v>
+        <v>-0.03813221165434143</v>
       </c>
       <c r="F55">
-        <v>-0.02624239362997039</v>
-      </c>
-    </row>
-    <row r="56" spans="1:6">
+        <v>-0.0362836554344604</v>
+      </c>
+      <c r="G55">
+        <v>0.02280632234740355</v>
+      </c>
+      <c r="H55">
+        <v>-0.00916514792536955</v>
+      </c>
+      <c r="I55">
+        <v>0.02012349725055233</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9">
       <c r="A56" s="1" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="B56">
-        <v>-0.1675470272388931</v>
+        <v>0.163937106264069</v>
       </c>
       <c r="C56">
-        <v>-0.04296131887382557</v>
+        <v>0.02195357742254551</v>
       </c>
       <c r="D56">
-        <v>0.07735063775150076</v>
+        <v>0.002593383963598274</v>
       </c>
       <c r="E56">
-        <v>-0.03045804510614844</v>
+        <v>-0.08701693461572066</v>
       </c>
       <c r="F56">
-        <v>-0.1041227107653424</v>
-      </c>
-    </row>
-    <row r="57" spans="1:6">
+        <v>-0.09198838896561613</v>
+      </c>
+      <c r="G56">
+        <v>-0.03478827940561846</v>
+      </c>
+      <c r="H56">
+        <v>-0.01363197676946079</v>
+      </c>
+      <c r="I56">
+        <v>0.03917671263301021</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9">
       <c r="A57" s="1" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="B57">
-        <v>-0.08624656726806618</v>
+        <v>0.06709423091098118</v>
       </c>
       <c r="C57">
-        <v>0.02654807697901065</v>
+        <v>0.03330866564805725</v>
       </c>
       <c r="D57">
-        <v>0.03552708902662097</v>
+        <v>0.02159511893387239</v>
       </c>
       <c r="E57">
-        <v>0.02985407673147769</v>
+        <v>-0.003315449362439227</v>
       </c>
       <c r="F57">
-        <v>0.04966005167511119</v>
-      </c>
-    </row>
-    <row r="58" spans="1:6">
+        <v>0.0699936192190702</v>
+      </c>
+      <c r="G57">
+        <v>0.01439494092406162</v>
+      </c>
+      <c r="H57">
+        <v>0.01862818209493023</v>
+      </c>
+      <c r="I57">
+        <v>0.02876395415575084</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9">
       <c r="A58" s="1" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="B58">
-        <v>-0.2005178709779716</v>
+        <v>0.2086170188378652</v>
       </c>
       <c r="C58">
-        <v>0.05173551459348137</v>
+        <v>0.1023855703028551</v>
       </c>
       <c r="D58">
-        <v>0.05193680567306626</v>
+        <v>0.09666165751051328</v>
       </c>
       <c r="E58">
-        <v>0.04738911225796288</v>
+        <v>0.02268389750297838</v>
       </c>
       <c r="F58">
-        <v>0.1296803966129151</v>
-      </c>
-    </row>
-    <row r="59" spans="1:6">
+        <v>0.2796043708667733</v>
+      </c>
+      <c r="G58">
+        <v>0.4079727564001293</v>
+      </c>
+      <c r="H58">
+        <v>-0.3206216610613452</v>
+      </c>
+      <c r="I58">
+        <v>-0.6895575057258964</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9">
       <c r="A59" s="1" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="B59">
-        <v>-0.02473713412197247</v>
+        <v>0.04859940103330122</v>
       </c>
       <c r="C59">
-        <v>-0.1902615429236695</v>
+        <v>-0.2060226992637</v>
       </c>
       <c r="D59">
-        <v>-0.0576921341945923</v>
+        <v>0.01577219690589601</v>
       </c>
       <c r="E59">
-        <v>0.02407621298741265</v>
+        <v>0.01511945742582679</v>
       </c>
       <c r="F59">
-        <v>0.05612832931411707</v>
-      </c>
-    </row>
-    <row r="60" spans="1:6">
+        <v>0.06964437149555718</v>
+      </c>
+      <c r="G59">
+        <v>-0.004546385738042588</v>
+      </c>
+      <c r="H59">
+        <v>0.01535356232369877</v>
+      </c>
+      <c r="I59">
+        <v>0.01632877460084573</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9">
       <c r="A60" s="1" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="B60">
-        <v>-0.1802456123728002</v>
+        <v>0.1926644957285722</v>
       </c>
       <c r="C60">
-        <v>-0.07534547638366001</v>
+        <v>-0.05531773450377967</v>
       </c>
       <c r="D60">
-        <v>0.02325730418544704</v>
+        <v>0.04824652753625539</v>
       </c>
       <c r="E60">
-        <v>0.0657160163618221</v>
+        <v>-0.01190847023564423</v>
       </c>
       <c r="F60">
-        <v>0.1906443562027413</v>
-      </c>
-    </row>
-    <row r="61" spans="1:6">
+        <v>0.1998825304686454</v>
+      </c>
+      <c r="G60">
+        <v>-0.3399245407403119</v>
+      </c>
+      <c r="H60">
+        <v>-0.01405527593549618</v>
+      </c>
+      <c r="I60">
+        <v>-0.02875251065863288</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9">
       <c r="A61" s="1" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="B61">
-        <v>-0.04376692429623219</v>
+        <v>0.04037707481345661</v>
       </c>
       <c r="C61">
-        <v>0.0148271374414745</v>
+        <v>0.03456461970936937</v>
       </c>
       <c r="D61">
-        <v>0.01287196399422411</v>
+        <v>-0.001409305400423378</v>
       </c>
       <c r="E61">
-        <v>-0.005674381923899416</v>
+        <v>-0.01140863742288302</v>
       </c>
       <c r="F61">
-        <v>0.03219053013260958</v>
-      </c>
-    </row>
-    <row r="62" spans="1:6">
+        <v>0.03570508381921263</v>
+      </c>
+      <c r="G61">
+        <v>-0.009774311493569098</v>
+      </c>
+      <c r="H61">
+        <v>0.01208511113790695</v>
+      </c>
+      <c r="I61">
+        <v>-0.002943259570747629</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9">
       <c r="A62" s="1" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="B62">
         <v>0</v>
@@ -1937,150 +2495,222 @@
       <c r="F62">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="1:6">
+      <c r="G62">
+        <v>0</v>
+      </c>
+      <c r="H62">
+        <v>0</v>
+      </c>
+      <c r="I62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9">
       <c r="A63" s="1" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="B63">
-        <v>-0.04219568147537445</v>
+        <v>0.03106391399812475</v>
       </c>
       <c r="C63">
-        <v>0.01002262634348463</v>
+        <v>0.02442240507484746</v>
       </c>
       <c r="D63">
-        <v>0.03097752777161265</v>
+        <v>0.00151964478024798</v>
       </c>
       <c r="E63">
-        <v>0.001833406455854006</v>
+        <v>-0.01855578215216143</v>
       </c>
       <c r="F63">
-        <v>0.03320537513083097</v>
-      </c>
-    </row>
-    <row r="64" spans="1:6">
+        <v>0.02916687434863315</v>
+      </c>
+      <c r="G63">
+        <v>0.04835795206434214</v>
+      </c>
+      <c r="H63">
+        <v>0.007638191815193864</v>
+      </c>
+      <c r="I63">
+        <v>0.0329755284189484</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9">
       <c r="A64" s="1" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="B64">
-        <v>-0.06250863581399578</v>
+        <v>0.05688999068123521</v>
       </c>
       <c r="C64">
-        <v>0.02826455526520926</v>
+        <v>0.03507355880278055</v>
       </c>
       <c r="D64">
-        <v>0.02678839650241127</v>
+        <v>-0.009851682041469122</v>
       </c>
       <c r="E64">
-        <v>-0.03030704901687736</v>
+        <v>-0.01997874214481248</v>
       </c>
       <c r="F64">
-        <v>0.02997092060766165</v>
-      </c>
-    </row>
-    <row r="65" spans="1:6">
+        <v>0.03799222203069815</v>
+      </c>
+      <c r="G64">
+        <v>0.02467483958579481</v>
+      </c>
+      <c r="H64">
+        <v>0.0608914811679143</v>
+      </c>
+      <c r="I64">
+        <v>0.03714260660094684</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9">
       <c r="A65" s="1" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="B65">
-        <v>0</v>
+        <v>0.02680474432964232</v>
       </c>
       <c r="C65">
-        <v>0</v>
+        <v>0.01069805501311648</v>
       </c>
       <c r="D65">
-        <v>0</v>
+        <v>-0.005405830476463085</v>
       </c>
       <c r="E65">
-        <v>0</v>
+        <v>-0.008287910025817188</v>
       </c>
       <c r="F65">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="66" spans="1:6">
+        <v>0.003478909749383406</v>
+      </c>
+      <c r="G65">
+        <v>-0.02354547989204297</v>
+      </c>
+      <c r="H65">
+        <v>-0.01713142323995926</v>
+      </c>
+      <c r="I65">
+        <v>-0.0033982875525048</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9">
       <c r="A66" s="1" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="B66">
-        <v>-0.07846278498457239</v>
+        <v>0.06786014783435235</v>
       </c>
       <c r="C66">
-        <v>0.03096648780861598</v>
+        <v>0.05737948374021359</v>
       </c>
       <c r="D66">
-        <v>0.05203655017647597</v>
+        <v>0.01335752588380219</v>
       </c>
       <c r="E66">
-        <v>-0.003524048952860393</v>
+        <v>-0.04594464625633864</v>
       </c>
       <c r="F66">
-        <v>0.07255687212187975</v>
-      </c>
-    </row>
-    <row r="67" spans="1:6">
+        <v>0.06734761475411224</v>
+      </c>
+      <c r="G66">
+        <v>-0.01255465752195795</v>
+      </c>
+      <c r="H66">
+        <v>0.009157935452049301</v>
+      </c>
+      <c r="I66">
+        <v>0.04307835919270873</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9">
       <c r="A67" s="1" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="B67">
-        <v>-0.05361057656718855</v>
+        <v>0.04867447866182169</v>
       </c>
       <c r="C67">
-        <v>-0.01252734005739364</v>
+        <v>-0.002588127518784899</v>
       </c>
       <c r="D67">
-        <v>0.001607468281561287</v>
+        <v>0.001482028202538194</v>
       </c>
       <c r="E67">
-        <v>-0.006290380575397364</v>
+        <v>-0.008646883276287138</v>
       </c>
       <c r="F67">
-        <v>0.01948338482627867</v>
-      </c>
-    </row>
-    <row r="68" spans="1:6">
+        <v>0.03756086373672958</v>
+      </c>
+      <c r="G67">
+        <v>0.002530113576575654</v>
+      </c>
+      <c r="H67">
+        <v>0.03604126727200441</v>
+      </c>
+      <c r="I67">
+        <v>-0.02524430683551332</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9">
       <c r="A68" s="1" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="B68">
-        <v>-0.04201103577423207</v>
+        <v>0.05879212199388002</v>
       </c>
       <c r="C68">
-        <v>-0.2267081305742748</v>
+        <v>-0.2389673982866792</v>
       </c>
       <c r="D68">
-        <v>-0.09081736677070228</v>
+        <v>0.01454899053538761</v>
       </c>
       <c r="E68">
-        <v>0.03266442219403966</v>
+        <v>0.0336606903736989</v>
       </c>
       <c r="F68">
-        <v>0.05276620082827536</v>
-      </c>
-    </row>
-    <row r="69" spans="1:6">
+        <v>0.04904594957857852</v>
+      </c>
+      <c r="G68">
+        <v>0.01987532956130035</v>
+      </c>
+      <c r="H68">
+        <v>-0.002472859345611869</v>
+      </c>
+      <c r="I68">
+        <v>0.03812439305221819</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9">
       <c r="A69" s="1" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="B69">
-        <v>-0.08058332068090428</v>
+        <v>0.07282876787709663</v>
       </c>
       <c r="C69">
-        <v>0.001886540666226164</v>
+        <v>0.02105739616079466</v>
       </c>
       <c r="D69">
-        <v>0.02708995067909187</v>
+        <v>0.006848006351912858</v>
       </c>
       <c r="E69">
-        <v>0.0002517521619365955</v>
+        <v>-0.03030777482836091</v>
       </c>
       <c r="F69">
-        <v>-0.01726257110070063</v>
-      </c>
-    </row>
-    <row r="70" spans="1:6">
+        <v>-0.004621164925087753</v>
+      </c>
+      <c r="G69">
+        <v>0.03708938871194141</v>
+      </c>
+      <c r="H69">
+        <v>0.02588569401675154</v>
+      </c>
+      <c r="I69">
+        <v>0.01829239468726152</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9">
       <c r="A70" s="1" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="B70">
         <v>0</v>
@@ -2097,170 +2727,251 @@
       <c r="F70">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:6">
+      <c r="G70">
+        <v>0</v>
+      </c>
+      <c r="H70">
+        <v>0</v>
+      </c>
+      <c r="I70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9">
       <c r="A71" s="1" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="B71">
-        <v>-0.03801251691569678</v>
+        <v>0.05599363973981983</v>
       </c>
       <c r="C71">
-        <v>-0.2781962327595555</v>
+        <v>-0.2630969030566717</v>
       </c>
       <c r="D71">
-        <v>-0.09683917639658327</v>
+        <v>0.01692579985979656</v>
       </c>
       <c r="E71">
-        <v>0.06495138603830879</v>
+        <v>0.0499446951735855</v>
       </c>
       <c r="F71">
-        <v>0.08337127347462224</v>
-      </c>
-    </row>
-    <row r="72" spans="1:6">
+        <v>0.06877024614537164</v>
+      </c>
+      <c r="G71">
+        <v>0.02563438287496329</v>
+      </c>
+      <c r="H71">
+        <v>0.02365771366212707</v>
+      </c>
+      <c r="I71">
+        <v>0.03633330171407329</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9">
       <c r="A72" s="1" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="B72">
-        <v>-0.1296810258650641</v>
+        <v>0.1256130417856195</v>
       </c>
       <c r="C72">
-        <v>-0.02636288325918186</v>
+        <v>0.03578729888336961</v>
       </c>
       <c r="D72">
-        <v>0.0543811493917612</v>
+        <v>0.009758244126205429</v>
       </c>
       <c r="E72">
-        <v>-0.00433861813421567</v>
+        <v>-0.07170468255912668</v>
       </c>
       <c r="F72">
-        <v>0.07498018800098469</v>
-      </c>
-    </row>
-    <row r="73" spans="1:6">
+        <v>0.08489320605092948</v>
+      </c>
+      <c r="G72">
+        <v>-0.04175200880596007</v>
+      </c>
+      <c r="H72">
+        <v>-0.04882259070948024</v>
+      </c>
+      <c r="I72">
+        <v>-0.1043167060718534</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9">
       <c r="A73" s="1" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="B73">
-        <v>-0.2722248106981373</v>
+        <v>0.269659855467041</v>
       </c>
       <c r="C73">
-        <v>-0.1431175815964019</v>
+        <v>-0.0806487504210216</v>
       </c>
       <c r="D73">
-        <v>-0.02936683788757513</v>
+        <v>0.08582008082425108</v>
       </c>
       <c r="E73">
-        <v>0.09919650457672033</v>
+        <v>0.035130472107847</v>
       </c>
       <c r="F73">
-        <v>0.3255884863204191</v>
-      </c>
-    </row>
-    <row r="74" spans="1:6">
+        <v>0.2939103304713119</v>
+      </c>
+      <c r="G73">
+        <v>-0.5178143745050183</v>
+      </c>
+      <c r="H73">
+        <v>-0.08532323489758287</v>
+      </c>
+      <c r="I73">
+        <v>-0.1116973722463632</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9">
       <c r="A74" s="1" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="B74">
-        <v>-0.1502453200080988</v>
+        <v>0.1482694978791506</v>
       </c>
       <c r="C74">
-        <v>-0.007128298634640849</v>
+        <v>0.03234361664269326</v>
       </c>
       <c r="D74">
-        <v>0.04229799079886776</v>
+        <v>0.01182640597481235</v>
       </c>
       <c r="E74">
-        <v>0.0009265782964915079</v>
+        <v>-0.05057220545820697</v>
       </c>
       <c r="F74">
-        <v>-0.04952841408065325</v>
-      </c>
-    </row>
-    <row r="75" spans="1:6">
+        <v>-0.06828332157719205</v>
+      </c>
+      <c r="G74">
+        <v>-0.03056536073446524</v>
+      </c>
+      <c r="H74">
+        <v>-0.01759358926103141</v>
+      </c>
+      <c r="I74">
+        <v>0.07813259501993064</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9">
       <c r="A75" s="1" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="B75">
-        <v>-0.225603321962276</v>
+        <v>0.2486924111224333</v>
       </c>
       <c r="C75">
-        <v>-0.03189368403064525</v>
+        <v>0.02309629076016107</v>
       </c>
       <c r="D75">
-        <v>0.08862007267015622</v>
+        <v>0.02960287701188871</v>
       </c>
       <c r="E75">
-        <v>0.006182413831484555</v>
+        <v>-0.1151461696475919</v>
       </c>
       <c r="F75">
-        <v>-0.1441148178587485</v>
-      </c>
-    </row>
-    <row r="76" spans="1:6">
+        <v>-0.1458188281672103</v>
+      </c>
+      <c r="G75">
+        <v>-0.01777460208306468</v>
+      </c>
+      <c r="H75">
+        <v>0.01327773739271813</v>
+      </c>
+      <c r="I75">
+        <v>0.04057048210491815</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9">
       <c r="A76" s="1" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="B76">
-        <v>-0.2493003609369077</v>
+        <v>0.2626982684837313</v>
       </c>
       <c r="C76">
-        <v>-0.06600002658160267</v>
+        <v>0.01488942236182965</v>
       </c>
       <c r="D76">
-        <v>0.08459479770498991</v>
+        <v>-0.009008767607622731</v>
       </c>
       <c r="E76">
-        <v>-0.06286102745746637</v>
+        <v>-0.136197629221514</v>
       </c>
       <c r="F76">
-        <v>-0.1357205361694197</v>
-      </c>
-    </row>
-    <row r="77" spans="1:6">
+        <v>-0.1815285286849996</v>
+      </c>
+      <c r="G76">
+        <v>-0.02821993056099633</v>
+      </c>
+      <c r="H76">
+        <v>-0.07077094465240197</v>
+      </c>
+      <c r="I76">
+        <v>0.05552445198581003</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9">
       <c r="A77" s="1" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="B77">
-        <v>-0.138188226891743</v>
+        <v>0.1182400117799635</v>
       </c>
       <c r="C77">
-        <v>0.06289507035853203</v>
+        <v>0.07295749533210448</v>
       </c>
       <c r="D77">
-        <v>0.01030858309530758</v>
+        <v>0.009380391870248198</v>
       </c>
       <c r="E77">
-        <v>0.01178074619808736</v>
+        <v>0.03938786950140887</v>
       </c>
       <c r="F77">
-        <v>0.1552293195852255</v>
-      </c>
-    </row>
-    <row r="78" spans="1:6">
+        <v>0.1623717243731566</v>
+      </c>
+      <c r="G77">
+        <v>0.2103278986270657</v>
+      </c>
+      <c r="H77">
+        <v>-0.001213810447896221</v>
+      </c>
+      <c r="I77">
+        <v>0.2474484401284224</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9">
       <c r="A78" s="1" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="B78">
-        <v>-0.09476171258430698</v>
+        <v>0.07273680673556029</v>
       </c>
       <c r="C78">
-        <v>0.07919594405085073</v>
+        <v>0.07545019927790002</v>
       </c>
       <c r="D78">
-        <v>0.02024340221070598</v>
+        <v>-0.004379642233943088</v>
       </c>
       <c r="E78">
-        <v>-0.01155121098790572</v>
+        <v>-0.007254553509054821</v>
       </c>
       <c r="F78">
-        <v>0.04955473863181555</v>
-      </c>
-    </row>
-    <row r="79" spans="1:6">
+        <v>0.07002114598841162</v>
+      </c>
+      <c r="G78">
+        <v>0.01114300622894297</v>
+      </c>
+      <c r="H78">
+        <v>0.02095452074398564</v>
+      </c>
+      <c r="I78">
+        <v>0.0469474376455707</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9">
       <c r="A79" s="1" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="B79">
         <v>0</v>
@@ -2277,50 +2988,77 @@
       <c r="F79">
         <v>0</v>
       </c>
-    </row>
-    <row r="80" spans="1:6">
+      <c r="G79">
+        <v>0</v>
+      </c>
+      <c r="H79">
+        <v>0</v>
+      </c>
+      <c r="I79">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9">
       <c r="A80" s="1" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="B80">
-        <v>-0.1061975705812334</v>
+        <v>0.1398606042054694</v>
       </c>
       <c r="C80">
-        <v>0.01381228079493933</v>
+        <v>-0.0328686839018692</v>
       </c>
       <c r="D80">
-        <v>-0.3244083755556194</v>
+        <v>-0.9757292237910474</v>
       </c>
       <c r="E80">
-        <v>-0.9146552382045248</v>
+        <v>0.04930384658289341</v>
       </c>
       <c r="F80">
-        <v>0.06505072808683558</v>
-      </c>
-    </row>
-    <row r="81" spans="1:6">
+        <v>0.04423918049232882</v>
+      </c>
+      <c r="G80">
+        <v>-0.03146789484146392</v>
+      </c>
+      <c r="H80">
+        <v>0.0300114605322791</v>
+      </c>
+      <c r="I80">
+        <v>-0.09878725090318521</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9">
       <c r="A81" s="1" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="B81">
-        <v>-0.1569042015918676</v>
+        <v>0.1835335268173366</v>
       </c>
       <c r="C81">
-        <v>-0.02495541997963386</v>
+        <v>0.01204581361240712</v>
       </c>
       <c r="D81">
-        <v>0.04618072031324527</v>
+        <v>0.008305297749754005</v>
       </c>
       <c r="E81">
-        <v>-0.009525890634970476</v>
+        <v>-0.08822825870403639</v>
       </c>
       <c r="F81">
-        <v>-0.1889387154586422</v>
-      </c>
-    </row>
-    <row r="82" spans="1:6">
+        <v>-0.162950126843137</v>
+      </c>
+      <c r="G81">
+        <v>0.01560018422724024</v>
+      </c>
+      <c r="H81">
+        <v>-0.01861017936585858</v>
+      </c>
+      <c r="I81">
+        <v>0.006964021115477568</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9">
       <c r="A82" s="1" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="B82">
         <v>0</v>
@@ -2337,30 +3075,48 @@
       <c r="F82">
         <v>0</v>
       </c>
-    </row>
-    <row r="83" spans="1:6">
+      <c r="G82">
+        <v>0</v>
+      </c>
+      <c r="H82">
+        <v>0</v>
+      </c>
+      <c r="I82">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9">
       <c r="A83" s="1" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="B83">
-        <v>-0.09442449773467382</v>
+        <v>0.07032206206007295</v>
       </c>
       <c r="C83">
-        <v>0.08461923352984074</v>
+        <v>0.05564223282949192</v>
       </c>
       <c r="D83">
-        <v>0.009498535587369567</v>
+        <v>0.01252551702357015</v>
       </c>
       <c r="E83">
-        <v>0.02340216013843092</v>
+        <v>0.02007035918987505</v>
       </c>
       <c r="F83">
-        <v>0.01650768409108785</v>
-      </c>
-    </row>
-    <row r="84" spans="1:6">
+        <v>0.0488683532227977</v>
+      </c>
+      <c r="G83">
+        <v>0.03597808522856086</v>
+      </c>
+      <c r="H83">
+        <v>0.06312102078784189</v>
+      </c>
+      <c r="I83">
+        <v>0.03795325919387238</v>
+      </c>
+    </row>
+    <row r="84" spans="1:9">
       <c r="A84" s="1" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="B84">
         <v>0</v>
@@ -2377,230 +3133,338 @@
       <c r="F84">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="1:6">
+      <c r="G84">
+        <v>0</v>
+      </c>
+      <c r="H84">
+        <v>0</v>
+      </c>
+      <c r="I84">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:9">
       <c r="A85" s="1" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="B85">
-        <v>-0.2351697585744112</v>
+        <v>0.2499813233912359</v>
       </c>
       <c r="C85">
-        <v>0.007382128635629533</v>
+        <v>0.05358192402679619</v>
       </c>
       <c r="D85">
-        <v>0.08009621666532211</v>
+        <v>0.009711638128635604</v>
       </c>
       <c r="E85">
-        <v>-0.05892673259298724</v>
+        <v>-0.1110168231376033</v>
       </c>
       <c r="F85">
-        <v>-0.1584511493974223</v>
-      </c>
-    </row>
-    <row r="86" spans="1:6">
+        <v>-0.1839716190005014</v>
+      </c>
+      <c r="G85">
+        <v>0.01452961680019372</v>
+      </c>
+      <c r="H85">
+        <v>-0.0218132043634986</v>
+      </c>
+      <c r="I85">
+        <v>0.07184516374499232</v>
+      </c>
+    </row>
+    <row r="86" spans="1:9">
       <c r="A86" s="1" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="B86">
-        <v>-0.04285771769019418</v>
+        <v>0.0297837689646584</v>
       </c>
       <c r="C86">
-        <v>0.05074782747704581</v>
+        <v>0.0543270963799157</v>
       </c>
       <c r="D86">
-        <v>0.03824746828564412</v>
+        <v>0.003197953767459126</v>
       </c>
       <c r="E86">
-        <v>0.004533914037529091</v>
+        <v>-0.01565818963356697</v>
       </c>
       <c r="F86">
-        <v>0.06961954913624732</v>
-      </c>
-    </row>
-    <row r="87" spans="1:6">
+        <v>0.08020736372571728</v>
+      </c>
+      <c r="G86">
+        <v>0.05469002075159212</v>
+      </c>
+      <c r="H86">
+        <v>0.01267854168183919</v>
+      </c>
+      <c r="I86">
+        <v>0.05810237485701612</v>
+      </c>
+    </row>
+    <row r="87" spans="1:9">
       <c r="A87" s="1" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="B87">
-        <v>-0.01972496477467365</v>
+        <v>0.02716617032363131</v>
       </c>
       <c r="C87">
-        <v>-0.03165525591695181</v>
+        <v>-0.00475358576113737</v>
       </c>
       <c r="D87">
-        <v>-0.01527412967954289</v>
+        <v>-0.004418697061763368</v>
       </c>
       <c r="E87">
-        <v>0.005263733216065982</v>
+        <v>0.004523072215195113</v>
       </c>
       <c r="F87">
-        <v>0.09434966329030191</v>
-      </c>
-    </row>
-    <row r="88" spans="1:6">
+        <v>0.1029293046381717</v>
+      </c>
+      <c r="G87">
+        <v>0.02727470505358841</v>
+      </c>
+      <c r="H87">
+        <v>-0.0107854136311844</v>
+      </c>
+      <c r="I87">
+        <v>0.03513274999779163</v>
+      </c>
+    </row>
+    <row r="88" spans="1:9">
       <c r="A88" s="1" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="B88">
-        <v>-0.0322596311141246</v>
+        <v>0.03668544752468741</v>
       </c>
       <c r="C88">
-        <v>0.01720670607386479</v>
+        <v>0.008294078827407328</v>
       </c>
       <c r="D88">
-        <v>0.01510474129360446</v>
+        <v>-0.005615868074633527</v>
       </c>
       <c r="E88">
-        <v>-0.02568498181629215</v>
+        <v>-0.00816258346516262</v>
       </c>
       <c r="F88">
-        <v>-0.02545252323400809</v>
-      </c>
-    </row>
-    <row r="89" spans="1:6">
+        <v>-0.01710196604211609</v>
+      </c>
+      <c r="G88">
+        <v>0.02315387228830708</v>
+      </c>
+      <c r="H88">
+        <v>0.04658149084951722</v>
+      </c>
+      <c r="I88">
+        <v>0.004527028475903919</v>
+      </c>
+    </row>
+    <row r="89" spans="1:9">
       <c r="A89" s="1" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="B89">
-        <v>-0.05530181601391868</v>
+        <v>0.08927987787709638</v>
       </c>
       <c r="C89">
-        <v>-0.3284084783464872</v>
+        <v>-0.3853700807382731</v>
       </c>
       <c r="D89">
-        <v>-0.1782390838631658</v>
+        <v>0.04269872564446833</v>
       </c>
       <c r="E89">
-        <v>0.09138709826511822</v>
+        <v>0.06444832494541547</v>
       </c>
       <c r="F89">
-        <v>0.03722790040688275</v>
-      </c>
-    </row>
-    <row r="90" spans="1:6">
+        <v>0.0452963791976129</v>
+      </c>
+      <c r="G89">
+        <v>0.08411949965373254</v>
+      </c>
+      <c r="H89">
+        <v>0.0419652609145965</v>
+      </c>
+      <c r="I89">
+        <v>0.08549615044068522</v>
+      </c>
+    </row>
+    <row r="90" spans="1:9">
       <c r="A90" s="1" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="B90">
-        <v>-0.03783007853352832</v>
+        <v>0.05548463164142366</v>
       </c>
       <c r="C90">
-        <v>-0.2864756943555555</v>
+        <v>-0.3353745503370558</v>
       </c>
       <c r="D90">
-        <v>-0.1503767920020401</v>
+        <v>0.01757827150560138</v>
       </c>
       <c r="E90">
-        <v>0.02628860461775978</v>
+        <v>0.06149929572871557</v>
       </c>
       <c r="F90">
-        <v>0.06740784139917823</v>
-      </c>
-    </row>
-    <row r="91" spans="1:6">
+        <v>0.03748557400662671</v>
+      </c>
+      <c r="G90">
+        <v>0.05145644968292548</v>
+      </c>
+      <c r="H90">
+        <v>0.01952810848738566</v>
+      </c>
+      <c r="I90">
+        <v>0.06107116882374151</v>
+      </c>
+    </row>
+    <row r="91" spans="1:9">
       <c r="A91" s="1" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="B91">
-        <v>-0.2681891703537956</v>
+        <v>0.2859859913751865</v>
       </c>
       <c r="C91">
-        <v>0.002461670311547776</v>
+        <v>0.05476247077830836</v>
       </c>
       <c r="D91">
-        <v>0.0784641700908168</v>
+        <v>0.01897291457297702</v>
       </c>
       <c r="E91">
-        <v>-0.03742887480792278</v>
+        <v>-0.1051671865821714</v>
       </c>
       <c r="F91">
-        <v>-0.2755995397028527</v>
-      </c>
-    </row>
-    <row r="92" spans="1:6">
+        <v>-0.2697831380805199</v>
+      </c>
+      <c r="G91">
+        <v>0.0002997031640928304</v>
+      </c>
+      <c r="H91">
+        <v>-0.0517865112945407</v>
+      </c>
+      <c r="I91">
+        <v>0.06276979659865733</v>
+      </c>
+    </row>
+    <row r="92" spans="1:9">
       <c r="A92" s="1" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="B92">
-        <v>-0.07230875288645612</v>
+        <v>0.1262237946611436</v>
       </c>
       <c r="C92">
-        <v>-0.2989027635818698</v>
+        <v>-0.3781491302080374</v>
       </c>
       <c r="D92">
-        <v>-0.2309019795970851</v>
+        <v>0.004395613830925046</v>
       </c>
       <c r="E92">
-        <v>0.02372740810805334</v>
+        <v>0.08741387639978369</v>
       </c>
       <c r="F92">
-        <v>-0.09663254160517666</v>
-      </c>
-    </row>
-    <row r="93" spans="1:6">
+        <v>-0.1181078656259995</v>
+      </c>
+      <c r="G92">
+        <v>0.3303013818090898</v>
+      </c>
+      <c r="H92">
+        <v>0.005463356399848277</v>
+      </c>
+      <c r="I92">
+        <v>-0.09038417660194528</v>
+      </c>
+    </row>
+    <row r="93" spans="1:9">
       <c r="A93" s="1" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="B93">
-        <v>-0.03422407550872552</v>
+        <v>0.07324350847528173</v>
       </c>
       <c r="C93">
-        <v>-0.3374644757551258</v>
+        <v>-0.399565077971039</v>
       </c>
       <c r="D93">
-        <v>-0.196056570356835</v>
+        <v>0.03204496260362352</v>
       </c>
       <c r="E93">
-        <v>0.04820393823355616</v>
+        <v>0.09786950474049229</v>
       </c>
       <c r="F93">
-        <v>-0.004937692410096977</v>
-      </c>
-    </row>
-    <row r="94" spans="1:6">
+        <v>-0.002060951032115446</v>
+      </c>
+      <c r="G93">
+        <v>0.02642131057850818</v>
+      </c>
+      <c r="H93">
+        <v>0.05676393558240656</v>
+      </c>
+      <c r="I93">
+        <v>-0.001776184151921741</v>
+      </c>
+    </row>
+    <row r="94" spans="1:9">
       <c r="A94" s="1" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="B94">
-        <v>-0.2817914242437321</v>
+        <v>0.3121036215679601</v>
       </c>
       <c r="C94">
-        <v>-0.1101911665635772</v>
+        <v>-0.03621561327779553</v>
       </c>
       <c r="D94">
-        <v>0.0005385286798031805</v>
+        <v>0.04687239146339014</v>
       </c>
       <c r="E94">
-        <v>0.00245479839207974</v>
+        <v>-0.1100131553024546</v>
       </c>
       <c r="F94">
-        <v>-0.3330599476071824</v>
-      </c>
-    </row>
-    <row r="95" spans="1:6">
+        <v>-0.3109668341891819</v>
+      </c>
+      <c r="G94">
+        <v>0.0914407746827641</v>
+      </c>
+      <c r="H94">
+        <v>-0.2033235606069881</v>
+      </c>
+      <c r="I94">
+        <v>0.0222780858850051</v>
+      </c>
+    </row>
+    <row r="95" spans="1:9">
       <c r="A95" s="1" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="B95">
-        <v>-0.1709111302019685</v>
+        <v>0.1343760457729846</v>
       </c>
       <c r="C95">
-        <v>0.05860869254700527</v>
+        <v>0.05653168960704496</v>
       </c>
       <c r="D95">
-        <v>0.0175609819543547</v>
+        <v>0.08498770110359996</v>
       </c>
       <c r="E95">
-        <v>0.09105709087357605</v>
+        <v>-0.02851125042213359</v>
       </c>
       <c r="F95">
-        <v>-0.3932760446336103</v>
-      </c>
-    </row>
-    <row r="96" spans="1:6">
+        <v>-0.1046253311593941</v>
+      </c>
+      <c r="G95">
+        <v>0.007976570172820028</v>
+      </c>
+      <c r="H95">
+        <v>0.8738001831686465</v>
+      </c>
+      <c r="I95">
+        <v>-0.3611947360060631</v>
+      </c>
+    </row>
+    <row r="96" spans="1:9">
       <c r="A96" s="1" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -2617,10 +3481,19 @@
       <c r="F96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:6">
+      <c r="G96">
+        <v>0</v>
+      </c>
+      <c r="H96">
+        <v>0</v>
+      </c>
+      <c r="I96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:9">
       <c r="A97" s="1" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="B97">
         <v>0</v>
@@ -2637,30 +3510,48 @@
       <c r="F97">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="1:6">
+      <c r="G97">
+        <v>0</v>
+      </c>
+      <c r="H97">
+        <v>0</v>
+      </c>
+      <c r="I97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:9">
       <c r="A98" s="1" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="B98">
-        <v>-0.2065471987587535</v>
+        <v>0.2078822217253839</v>
       </c>
       <c r="C98">
-        <v>-0.08948592784699802</v>
+        <v>-0.0666553121795852</v>
       </c>
       <c r="D98">
-        <v>-0.01916036839697171</v>
+        <v>0.06147714081494786</v>
       </c>
       <c r="E98">
-        <v>0.08281209039092985</v>
+        <v>0.0248691109832333</v>
       </c>
       <c r="F98">
-        <v>0.09379628627006127</v>
-      </c>
-    </row>
-    <row r="99" spans="1:6">
+        <v>0.1682180979025177</v>
+      </c>
+      <c r="G98">
+        <v>-0.3474755794736561</v>
+      </c>
+      <c r="H98">
+        <v>-0.02906791021839084</v>
+      </c>
+      <c r="I98">
+        <v>-0.115647195157424</v>
+      </c>
+    </row>
+    <row r="99" spans="1:9">
       <c r="A99" s="1" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="B99">
         <v>0</v>
@@ -2677,10 +3568,19 @@
       <c r="F99">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="1:6">
+      <c r="G99">
+        <v>0</v>
+      </c>
+      <c r="H99">
+        <v>0</v>
+      </c>
+      <c r="I99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:9">
       <c r="A100" s="1" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -2697,70 +3597,106 @@
       <c r="F100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:6">
+      <c r="G100">
+        <v>0</v>
+      </c>
+      <c r="H100">
+        <v>0</v>
+      </c>
+      <c r="I100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:9">
       <c r="A101" s="1" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="B101">
-        <v>-0.03190208679644967</v>
+        <v>0.01884928533551793</v>
       </c>
       <c r="C101">
-        <v>0.02003410542586508</v>
+        <v>0.03320548197738701</v>
       </c>
       <c r="D101">
-        <v>0.03804744741353254</v>
+        <v>-0.004167674494282571</v>
       </c>
       <c r="E101">
-        <v>-0.01790535702087616</v>
+        <v>-0.03707556201888241</v>
       </c>
       <c r="F101">
-        <v>0.0197703093454942</v>
-      </c>
-    </row>
-    <row r="102" spans="1:6">
+        <v>0.06446718545505944</v>
+      </c>
+      <c r="G101">
+        <v>0.1117506463244957</v>
+      </c>
+      <c r="H101">
+        <v>-0.01610182035560553</v>
+      </c>
+      <c r="I101">
+        <v>-0.1159583000267095</v>
+      </c>
+    </row>
+    <row r="102" spans="1:9">
       <c r="A102" s="1" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="B102">
-        <v>-0.09925212966776352</v>
+        <v>0.1177807413500403</v>
       </c>
       <c r="C102">
-        <v>0.01478571700440044</v>
+        <v>0.02706058741131234</v>
       </c>
       <c r="D102">
-        <v>0.04662182606502734</v>
+        <v>-0.003466343306824036</v>
       </c>
       <c r="E102">
-        <v>-0.0391282479622921</v>
+        <v>-0.05218639465435575</v>
       </c>
       <c r="F102">
-        <v>-0.1058224426088815</v>
-      </c>
-    </row>
-    <row r="103" spans="1:6">
+        <v>-0.1174847034235986</v>
+      </c>
+      <c r="G102">
+        <v>0.008370568861301287</v>
+      </c>
+      <c r="H102">
+        <v>0.001219780767837089</v>
+      </c>
+      <c r="I102">
+        <v>0.05224594828657213</v>
+      </c>
+    </row>
+    <row r="103" spans="1:9">
       <c r="A103" s="1" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="B103">
-        <v>-0.0202941143375473</v>
+        <v>0.02919194716701254</v>
       </c>
       <c r="C103">
-        <v>0.006616552959209615</v>
+        <v>0.01001226135736741</v>
       </c>
       <c r="D103">
-        <v>0.0176016783743604</v>
+        <v>-0.008224128767932338</v>
       </c>
       <c r="E103">
-        <v>-0.006046283205407361</v>
+        <v>-0.01909493936160531</v>
       </c>
       <c r="F103">
-        <v>-0.03361271688402791</v>
-      </c>
-    </row>
-    <row r="104" spans="1:6">
+        <v>-0.02554460757660498</v>
+      </c>
+      <c r="G103">
+        <v>0.0167404387210121</v>
+      </c>
+      <c r="H103">
+        <v>0.008728984705944349</v>
+      </c>
+      <c r="I103">
+        <v>0.01424712893501355</v>
+      </c>
+    </row>
+    <row r="104" spans="1:9">
       <c r="A104" s="1" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="B104">
         <v>0</v>
@@ -2775,6 +3711,15 @@
         <v>0</v>
       </c>
       <c r="F104">
+        <v>0</v>
+      </c>
+      <c r="G104">
+        <v>0</v>
+      </c>
+      <c r="H104">
+        <v>0</v>
+      </c>
+      <c r="I104">
         <v>0</v>
       </c>
     </row>
